--- a/data/dividends_info_20260207.xlsx
+++ b/data/dividends_info_20260207.xlsx
@@ -974,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,7 +1121,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VALTECNE S.p.A.</t>
+          <t>BFF Bank S.P.A.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1138,7 +1138,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ubaldi Costruzioni S.p.A.</t>
+          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1155,7 +1155,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ferrari N.V.</t>
+          <t>Arterra Bioscience S.p.A.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1165,36 +1165,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ferrari N.V.</t>
+          <t>eVISO S.p.A.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
+          <t>Svas Biosana S.p.A.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1206,63 +1206,63 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BFF Bank S.P.A.</t>
+          <t>Iveco Group N.V.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Arterra Bioscience S.p.A.</t>
+          <t>Iveco Group N.V.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ferrari N.V.</t>
+          <t>GEFRAN S.p.A.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>First Capital S.p.A.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1274,29 +1274,29 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>eVISO S.p.A.</t>
+          <t>ELICA S.p.A.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Half Year Preliminary Results</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1308,12 +1308,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Banca Generali S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1325,12 +1325,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1342,17 +1342,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>DEA CAPITAL REAL ESTATE SGR S.p.A.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1386,53 +1386,53 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Annual Report</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>Vimi Fasteners S.p.A.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>Riba Mundo Tecnologia S.A.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>Sanlorenzo S.p.A.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1444,46 +1444,46 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DEA CAPITAL REAL ESTATE SGR S.p.A.</t>
+          <t>Antares Vision S.p.A.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Annual Report</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ELICA S.p.A.</t>
+          <t>INTERPUMP GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>First Capital S.p.A.</t>
+          <t>ECOSUNTEK S.p.A.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1495,12 +1495,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GEFRAN S.p.A.</t>
+          <t>KALEON S.P.A.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1512,46 +1512,46 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Iveco Group N.V.</t>
+          <t>Leone Film Group S.p.A.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Iveco Group N.V.</t>
+          <t>EDISON S.p.A.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Svas Biosana S.p.A.</t>
+          <t>RECORDATI S.p.A.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1563,12 +1563,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Vimi Fasteners S.p.A.</t>
+          <t>Casta Diva Group S.p.A.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1580,97 +1580,97 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sanlorenzo S.p.A.</t>
+          <t>RECORDATI S.p.A.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Riba Mundo Tecnologia S.A.</t>
+          <t>Moncler S.p.A.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INTERPUMP GROUP S.p.A.</t>
+          <t>Unipol S.p.A.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Antares Vision S.p.A.</t>
+          <t>Moncler S.p.A.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ECOSUNTEK S.p.A.</t>
+          <t>Markbass S.p.A.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>KALEON S.P.A.</t>
+          <t>Laboratorio Farmaceutico Erfo S.p.A.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1682,12 +1682,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Leone Film Group S.p.A.</t>
+          <t>Alfonsino S.p.A.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1699,29 +1699,29 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EDISON S.p.A.</t>
+          <t>ELES S.p.A.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RECORDATI S.p.A.</t>
+          <t>ESAUTOMOTION S.p.A.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1733,29 +1733,29 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Casta Diva Group S.p.A.</t>
+          <t>Unipol S.p.A.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RECORDATI S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1767,12 +1767,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Alfonsino S.p.A.</t>
+          <t>GREEN OLEO S.p.A</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1784,63 +1784,63 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Laboratorio Farmaceutico Erfo S.p.A.</t>
+          <t>Haiki+ S.p.A.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Markbass S.p.A.</t>
+          <t>MEDIOLANUM GESTIONE FONDI SGR p.A.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Report</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Moncler S.p.A.</t>
+          <t>Matica Fintec S.p.A.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Moncler S.p.A.</t>
+          <t>Unicredit S.p.A.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1852,12 +1852,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Unipol S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1869,12 +1869,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ESAUTOMOTION S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1886,29 +1886,29 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Unipol S.p.A.</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ELES S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1920,29 +1920,29 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>Impianti S.p.A.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>GREEN OLEO S.p.A</t>
+          <t>Ferretti S.p.A.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1954,29 +1954,29 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Haiki+ S.p.A.</t>
+          <t>Farmacosmo S.p.A.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MEDIOLANUM GESTIONE FONDI SGR p.A.</t>
+          <t>CASTELLO SGR S.p.A.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1988,12 +1988,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Matica Fintec S.p.A.</t>
+          <t>Datrix S.p.A.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2005,80 +2005,80 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Unicredit S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Farmacosmo S.p.A.</t>
+          <t>Stellantis N.V.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CASTELLO SGR S.p.A.</t>
+          <t>Stellantis N.V.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ferretti S.p.A.</t>
+          <t>Prysmian S.p.A.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Impianti S.p.A.</t>
+          <t>doValue S.p.A.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2090,63 +2090,63 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>OSAI Automation System S.p.A.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>JUVENTUS F.C. S.p.A.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>Pozzi Milano S.p.A.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2158,46 +2158,46 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Prysmian S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>SOGEFI S.p.A.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>Renovalo S.p.A.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2209,165 +2209,165 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Datrix S.p.A.</t>
+          <t>Reti S.p.A.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Pirelli &amp; C. S.p.A.</t>
+          <t>Autostrade Meridionali S.p.A.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>doValue S.p.A.</t>
+          <t>OSAI Automation System S.p.A.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Stellantis N.V.</t>
+          <t>S.S. Lazio S.p.A.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Prysmian S.p.A.</t>
+          <t>Anima Holding S.p.A.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Pozzi Milano S.p.A.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Stellantis N.V.</t>
+          <t>Kruso Kapital S.p.A.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2379,12 +2379,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2396,12 +2396,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>IGD SIIQ S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2413,63 +2413,63 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>I.CO.P. S.p.A. Società Benefit</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Dedem S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2481,46 +2481,46 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>JUVENTUS F.C. S.p.A.</t>
+          <t>Masi Agricola S.p.A.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SOGEFI S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2532,63 +2532,63 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Reti S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Autostrade Meridionali S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2600,46 +2600,46 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Renovalo S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>S.S. Lazio S.p.A.</t>
+          <t>Banca Generali S.p.A.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Anima Holding S.p.A.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2651,29 +2651,29 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2685,12 +2685,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Kruso Kapital S.p.A.</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2702,29 +2702,29 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2736,29 +2736,29 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>ITALMOBILIARE S.p.A.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2770,29 +2770,29 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>AZIMUT HOLDING S.p.A.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2804,29 +2804,29 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Masi Agricola S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2838,510 +2838,34 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>Generalfinance S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
           <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>INTERCOS S.p.A.</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2026-03-04</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>MAIRE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2026-03-04</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>FinecoBank S.p.A.</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2026-03-04</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Davide Campari-Milano N.V.</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2026-03-04</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Davide Campari-Milano N.V.</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2026-03-04</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Banca Generali S.p.A.</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2026-03-04</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>AMPLIFON S.p.A.</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2026-03-04</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>AMPLIFON S.p.A.</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2026-03-04</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>INTERCOS S.p.A.</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2026-03-04</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Nexi S.p.A.</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>ITALMOBILIARE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Generalfinance S.p.A.</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>ASCOPIAVE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>ASCOPIAVE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Tinexta S.p.A.</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Snam S.p.A.</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>BEEWIZE</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>BANCA SISTEMA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Sanlorenzo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2026-03-09</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>DIGITAL BROS S.p.A.</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2026-03-09</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Half Year Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2026-03-09</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>CALTAGIRONE EDITORE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2026-03-09</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>VALSOIA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2026-03-09</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -3374,117 +2898,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CALTAGIRONE EDITORE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-03-09</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-03-09</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>DIGITAL BROS S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-03-09</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Half Year Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sanlorenzo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-03-09</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>VALSOIA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-03-09</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>